--- a/frontend-cemos/public/assets/content/intendencia/8-decreto6592/script/vf1.xlsx
+++ b/frontend-cemos/public/assets/content/intendencia/8-decreto6592/script/vf1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,32 +478,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>Decreto nº 6.592/2008</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pág 51</t>
+          <t>Pág 1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
+          <t>Decreto Mobilização Nacional</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A etimologia de estratégia sugere que o conceito não é estático, mas intrinsecamente ligado ao movimento (*agein*: conduzir adiante).</t>
+          <t>A Mobilização Nacional é a medida decretada pelo Presidente da República, em caso de agressão estrangeira, visando à obtenção imediata de recursos e meios.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A etimologia de estratégia confirma que o conceito é estático, referindo-se exclusivamente à defesa de uma posição fixa.</t>
+          <t>A Mobilização Nacional é decretada pelo Ministro da Defesa para obter recursos em caso de calamidade pública interna, sem relação com agressão estrangeira.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>A raiz *agein* significa conduzir ou avançar, implicando movimento, não estática.</t>
+          <t>Conforme o **art. 2º, caput**, a Mobilização Nacional é decretada pelo Presidente em caso de agressão estrangeira.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -512,32 +512,32 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>Decreto nº 6.592/2008</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pág 51</t>
+          <t>Pág 1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
+          <t>Decreto Mobilização Nacional</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>No contexto homérico, *stratos* refere-se ao exército que acampa, distinguindo-se de *stiches*, o exército em batalha.</t>
+          <t>Ameaças ou atos lesivos à soberania nacional e às instituições nacionais podem ser parâmetros para qualificar agressão estrangeira, mesmo sem invasão ao território.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>No contexto homérico, *stratos* e *stiches* são sinônimos absolutos, ambos referindo-se ao exército em plena batalha.</t>
+          <t>A agressão estrangeira é caracterizada exclusivamente pela invasão física ao território nacional, não abrangendo meras ameaças à soberania.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>*Stratos* é o exército acampado, enquanto *stiches* é o exército em formação de batalha.</t>
+          <t>Segundo o **art. 2º, § 1º**, a agressão inclui ameaças à soberania ou instituições, ainda que não signifiquem invasão.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -546,32 +546,32 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>Decreto nº 6.592/2008</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pág 51</t>
+          <t>Pág 1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
+          <t>Decreto Mobilização Nacional</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>No mundo do conflito dominado pela força, a estratégia tem a função de introduzir a ação da inteligência.</t>
+          <t>A Mobilização Nacional subdivide-se em duas fases: a do preparo e a da execução.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>No mundo do conflito, a estratégia serve apenas para legitimar o uso da força bruta, sem relação com a inteligência.</t>
+          <t>A Mobilização Nacional possui fase única de execução, dispensando etapas preparatórias.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>A estratégia é descrita como a *sollertia ducum facta*, a ação da inteligência no mundo da força.</t>
+          <t>O texto do **art. 2º, § 3º** estabelece explicitamente que a Mobilização subdivide-se nas fases de preparo e execução.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -580,32 +580,32 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>Decreto nº 6.592/2008</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pág 52</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
+          <t>Decreto Mobilização Nacional</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A função de estratego surgiu em Atenas no século V a.C., onde as tribos elegiam um colegiado de dez estrategos.</t>
+          <t>O SINAMOB deve assegurar a integração das capacidades dos Poderes Executivo, Legislativo e Judiciário no âmbito da União, Estados, DF e Municípios.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A função de estratego surgiu em Esparta no século IV a.C., sendo um cargo vitalício e único.</t>
+          <t>O SINAMOB restringe sua atuação exclusivamente ao Poder Executivo Federal, sem integrar outros poderes ou entes federados.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>A instituição dos estrategos é ateniense, surgida no século V a.C., com dez eleitos.</t>
+          <t>De acordo com o **art. 5º, parágrafo único**, o SINAMOB assegura a integração das capacidades dos três Poderes em todos os níveis federativos.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -614,32 +614,32 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>Decreto nº 6.592/2008</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pág 52</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
+          <t>Decreto Mobilização Nacional</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>O estrategista ateniense estava exposto a uma "dupla deriva": tornar-se um puro profissional militar ou transformar prestígio militar em capital puramente político.</t>
+          <t>O Comitê do SINAMOB é um colegiado deliberativo constituído pelos agentes representantes dos órgãos previstos em lei.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>O estrategista ateniense era proibido por lei de exercer qualquer influência política, devendo focar apenas na tática militar.</t>
+          <t>O Comitê do SINAMOB é um órgão meramente consultivo, sem poder de deliberação sobre as matérias do sistema.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>O cargo situava-se na interseção do político e do militar, correndo o risco de desvios para um dos lados.</t>
+          <t>Conforme o **art. 6º, III**, o Comitê do SINAMOB é um colegiado deliberativo.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -648,32 +648,32 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>Decreto nº 6.592/2008</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pág 52</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
+          <t>Decreto Mobilização Nacional</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Péricles é considerado a encarnação do "bom" estrategista por ter assegurado a hegemonia da cidade através de uma estratégia coerente.</t>
+          <t>As Diretrizes Governamentais de Mobilização Nacional estabelecem a orientação sobre como será conduzida a Mobilização Nacional.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Alcibíades é considerado a encarnação do "bom" estrategista, pois sua ambição pessoal fortaleceu as instituições democráticas de Atenas.</t>
+          <t>As Diretrizes Governamentais de Mobilização Nacional contêm as ações e metas específicas para cada necessidade, função esta do Plano Nacional.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Péricles soube unir a meta política e a ação militar, enquanto Alcibíades é o contra-modelo cuja ambição arruinou a cidade.</t>
+          <t>Segundo o **art. 7º, II**, as Diretrizes estabelecem a orientação e estratégias, enquanto o Plano Nacional (**inciso III**) contém ações e metas.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -682,32 +682,32 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>Decreto nº 6.592/2008</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pág 53</t>
+          <t>Pág 3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
+          <t>Decreto Mobilização Nacional</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>A partir de Políbio, o termo *strategema* ligou-se à ideia de ardil e embuste, diferenciando-se de *strategika*.</t>
+          <t>O Subsistema Setorial de Mobilização Política Interna fica sob a direção da Casa Civil da Presidência da República.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Para Políbio e historiadores posteriores, *strategema* referia-se exclusivamente à administração logística do exército, sem relação com ardis.</t>
+          <t>O Subsistema Setorial de Mobilização Política Interna é dirigido pelo Ministério da Justiça e Segurança Pública.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>*Strategema* passou a denotar ardil/embuste, enquanto *strategika* relacionava-se à ciência do general.</t>
+          <t>O **art. 9º, II**, define que a direção deste subsistema cabe à Casa Civil da Presidência da República.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -716,32 +716,32 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>Decreto nº 6.592/2008</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pág 53</t>
+          <t>Pág 3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
+          <t>Decreto Mobilização Nacional</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>A abordagem romana sobre a estratégia era dominantemente organizacional e concreta, vendo a *strategia* como a prefeitura militar.</t>
+          <t>O Subsistema Setorial de Mobilização de Inteligência está sob a direção do Gabinete de Segurança Institucional (GSI) da Presidência.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Os romanos desenvolveram uma teoria abstrata e filosófica da estratégia, desprezando a organização concreta dos exércitos.</t>
+          <t>O Subsistema Setorial de Mobilização de Inteligência é subordinado diretamente ao Ministério da Defesa.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Os romanos focavam na ciência organizacional e na *strategia* como comando do exército (*praetura*).</t>
+          <t>Conforme o **art. 9º, X**, a direção deste subsistema cabe ao Gabinete de Segurança Institucional.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -750,32 +750,32 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>Decreto nº 6.592/2008</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pág 53</t>
+          <t>Pág 3</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
+          <t>Decreto Mobilização Nacional</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Entre os bizantinos, a evolução do conceito foi regressiva, com o estratego tornando-se um chefe territorial e a Tática sendo suficiente para explicar a arte militar.</t>
+          <t>O Ministério da Economia dirige o Subsistema Setorial de Mobilização Econômica.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Os bizantinos foram os responsáveis por criar a distinção moderna e clara entre estratégia política e tática militar.</t>
+          <t>O Ministério das Relações Exteriores é o responsável pela direção do Subsistema Setorial de Mobilização Econômica.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Não havia distinção clara entre estratégia e tática em Bizâncio, e o estratego virou um administrador territorial.</t>
+          <t>De acordo com o **art. 9º, VI**, a direção do Subsistema Econômico cabe ao Ministério da Economia.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -784,32 +784,32 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>Decreto nº 6.592/2008</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pág 54</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
+          <t>Decreto Mobilização Nacional</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>O tratado *bing-fa* de Sun Tzu é uma exceção fora do mundo greco-romano, destacando-se no campo da estratégia como método militar.</t>
+          <t>O Subsistema de Mobilização Psicológica visa motivar a sociedade e obter opinião pública favorável aos interesses nacionais.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>O conceito de estratégia é universal e idêntico em todas as civilizações antigas, não havendo destaque especial para a obra de Sun Tzu.</t>
+          <t>O Subsistema de Mobilização Psicológica foca no tratamento clínico de estresse pós-traumático dos combatentes, sem relação com a opinião pública.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Sun Tzu oferece um conceito equivalente e amplo (*bing-fa*), algo raro fora do mundo greco-romano.</t>
+          <t>Segundo o **art. 10, VII**, o objetivo é motivar, informar a sociedade e obter opinião pública favorável.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -818,32 +818,32 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>Decreto nº 6.592/2008</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Pág 54</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
+          <t>Decreto Mobilização Nacional</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>A palavra *strategy* só recebeu um significado militar na língua inglesa em 1810, no *Military Dictionary* de James.</t>
+          <t>O Subsistema de Mobilização de Política Interna coordena a adaptação do ordenamento jurídico para garantir o atendimento das necessidades de Mobilização.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>A palavra *strategy* sempre teve significado militar em inglês, sendo usada nesse sentido desde o século XV.</t>
+          <t>O Subsistema de Mobilização de Política Interna cuida das relações diplomáticas para obter apoio fora dos limites territoriais.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Antes de 1810, a palavra aparecia com outros sentidos (ex: governo de província) ou não tinha cunho militar moderno.</t>
+          <t>Conforme o **art. 10, II**, a função é coordenar a adaptação do ordenamento jurídico e criar instrumentos legais.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -852,32 +852,32 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>Decreto nº 6.592/2008</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Pág 54</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
+          <t>Decreto Mobilização Nacional</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>No Ocidente, o conceito de estratégia desapareceu totalmente por vários séculos, restando apenas a ciência dos estratagemas.</t>
+          <t>O Subsistema de Mobilização Social visa proporcionar à população as necessidades sociais mínimas em situação emergencial.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>No Ocidente, o conceito de estratégia manteve-se central e inalterado durante toda a Idade Média.</t>
+          <t>O Subsistema de Mobilização Social tem como foco o desenvolvimento de armas biológicas para defesa nacional.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>O conceito de estratego e estratégia desapareceu, reaparecendo apenas no século XVIII.</t>
+          <t>O **art. 10, IV** estabelece que o objetivo é proporcionar necessidades sociais mínimas à população.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -886,32 +886,32 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>Decreto nº 6.592/2008</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Pág 55</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
+          <t>Decreto Mobilização Nacional</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Joly de Maizeroy foi fundamental para reintroduzir o termo *stratégie* em 1771, definindo-o posteriormente como a ciência do general que forma planos.</t>
+          <t>O Comitê do SINAMOB é presidido pelo Ministro de Estado da Defesa.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Joly de Maizeroy foi o responsável por banir o termo *stratégie* do vocabulário militar francês, preferindo o termo "Grande Tática".</t>
+          <t>O Comitê do SINAMOB é presidido pelo Ministro da Economia, dada a natureza logística dos recursos.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Maizeroy "forjou" o termo *stratégie* como sinônimo de grande tática em seus comentários sobre Leão, o Filósofo.</t>
+          <t>De acordo com o **art. 13, I**, o Ministro de Estado da Defesa presidirá o Comitê.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -920,32 +920,32 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>Decreto nº 6.592/2008</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Pág 55</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
+          <t>Decreto Mobilização Nacional</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Em 1777, Maizeroy definiu a estratégia como a ciência que combina tempo, lugares, meios e interesses para formar planos.</t>
+          <t>O Comitê do SINAMOB compõe-se de Plenário, Secretaria-Executiva, Câmaras Técnicas e Grupos de Trabalho.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Maizeroy definiu a estratégia, em 1777, como a arte de motivar os soldados através do discurso e do exemplo pessoal no combate.</t>
+          <t>A estrutura do Comitê do SINAMOB restringe-se apenas ao Plenário, sem secretarias ou grupos de apoio.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>A definição de Maizeroy foca na combinação intelectual de fatores (tempo, lugar, meios) para formar planos.</t>
+          <t>O **art. 12** lista expressamente: Plenário, Secretaria-Executiva, Câmaras Técnicas e Grupos de Trabalho.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -954,32 +954,32 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>Decreto nº 6.592/2008</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Pág 55</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
+          <t>Decreto Mobilização Nacional</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Antes do século XVIII, dicionários franceses como o Trévoux definiam *stratégue* apenas como termo da Antiguidade, sem transposição moderna.</t>
+          <t>O Presidente do Comitê pode convidar representantes de outros órgãos e entidades, públicas e privadas, para participar das reuniões sem direito a voto.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Desde o século XVI, os dicionários franceses já traziam o termo *stratégie* com seu significado moderno de condução da guerra.</t>
+          <t>A participação nas reuniões do Comitê é estritamente vedada a representantes de entidades privadas ou órgãos não membros.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>O termo era tratado como uma curiosidade histórica referente aos atenienses ou romanos, não como conceito moderno.</t>
+          <t>Segundo o **art. 13, § 3º**, o Presidente pode convidar outros representantes, porém sem direito a voto.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -988,32 +988,32 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>Decreto nº 6.592/2008</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Pág 56</t>
+          <t>Pág 6</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
+          <t>Decreto Mobilização Nacional</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>O livro de Dietrich von Bülow, em 1799, foi o ponto de inflexão decisivo para impor o conceito de estratégia na Europa.</t>
+          <t>Compete ao Comitê do SINAMOB formular a Política de Mobilização Nacional para posterior aprovação do Presidente da República.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Dietrich von Bülow foi um crítico ferrenho do conceito de estratégia, impedindo sua difusão na Europa até 1850.</t>
+          <t>O Comitê do SINAMOB tem autonomia para aprovar a Política de Mobilização Nacional sem necessidade de sanção presidencial.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Von Bülow resgatou e impôs o conceito com seu livro *Geist des neuern Kriegs Systems*.</t>
+          <t>Conforme o **art. 14, I**, o Comitê formula a política para posterior aprovação do Presidente da República.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1022,32 +1022,32 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>Decreto nº 6.592/2008</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Pág 56</t>
+          <t>Pág 6</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
+          <t>Decreto Mobilização Nacional</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>A palavra estratégia foi registrada em dicionário de língua portuguesa pela primeira vez em 1831, na 4ª edição de Moraes Silva.</t>
+          <t>As reuniões do Comitê ocorrem com 50% mais um dos membros na 1ª chamada, ou com qualquer número 15 minutos depois.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>A palavra estratégia existe nos dicionários de língua portuguesa desde as primeiras edições do século XVII.</t>
+          <t>As reuniões do Comitê exigem quórum de 100% dos membros para serem iniciadas em qualquer circunstância.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>O registro oficial em dicionário português ocorreu apenas em 1831.</t>
+          <t>O **art. 15** define o quórum de 50% mais um na primeira chamada e qualquer número na segunda chamada.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1056,32 +1056,32 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>Decreto nº 6.592/2008</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pág 56</t>
+          <t>Pág 6</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
+          <t>Decreto Mobilização Nacional</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>O termo *stratégiste* (estrategista) surgiu na França em 1831 para designar aquele que pensa a estratégia, distinguindo-se do prático.</t>
+          <t>O Comitê delibera por maioria simples, cabendo ao Presidente o voto de qualidade para desempate.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>O termo *stratégiste* sempre foi sinônimo exato de general, sem distinção entre quem pensa e quem executa.</t>
+          <t>O Comitê exige unanimidade para todas as deliberações e o Presidente não possui voto de desempate.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>*Stratégiste* impôs-se para designar o teórico ou pensador da estratégia.</t>
+          <t>Segundo o **art. 17**, a deliberação é por maioria simples, com voto de qualidade do Presidente.</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1090,32 +1090,32 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>Decreto nº 6.592/2008</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Pág 57</t>
+          <t>Pág 7</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
+          <t>Decreto Mobilização Nacional</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>A divisão dos exércitos em divisões autônomas no século XVIII criou a necessidade de conciliar dispersão e concentração, impulsionando a estratégia.</t>
+          <t>A Secretaria Executiva do Comitê será exercida pelo Órgão Central (Ministério da Defesa).</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>A organização divisionária dos exércitos simplificou a guerra, tornando o conceito de estratégia obsoleto e desnecessário.</t>
+          <t>A Secretaria Executiva do Comitê é exercida rotativamente pelos Ministérios Civis.</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>A complexidade gerada pela autonomia das divisões exigiu uma "ciência superior" (estratégia) para coordená-las.</t>
+          <t>Conforme o **art. 21**, a Secretaria Executiva será exercida pelo Órgão Central (Defesa).</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1124,32 +1124,32 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>Decreto nº 6.592/2008</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Pág 57</t>
+          <t>Pág 7</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
+          <t>Decreto Mobilização Nacional</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Napoleão preferia a expressão "altas partes da guerra" e recusava o uso do conceito de "estratégia".</t>
+          <t>A função de Secretário-Executivo será exercida por oficial general da área de Mobilização Nacional do Estado-Maior Conjunto das Forças Armadas.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Napoleão foi o primeiro a adotar oficialmente o título de "Estrategista Imperial" e usava a palavra em todas as suas ordens.</t>
+          <t>Qualquer servidor civil pode ser designado para a função de Secretário-Executivo, independente de vínculo com o Estado-Maior.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Napoleão recusava o termo estratégia, preferindo expressões como "altas partes da guerra".</t>
+          <t>O **art. 21, § 2º** especifica que a função cabe a oficial general da área de Mobilização do EMCFA.</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1158,32 +1158,32 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>Decreto nº 6.592/2008</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Pág 57</t>
+          <t>Pág 7</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
+          <t>Decreto Mobilização Nacional</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>A *Aufklärung* (luzes) militar desenvolveu-se na Alemanha nos anos 1770 com o objetivo de melhorar a formação dos oficiais.</t>
+          <t>O Presidente do Comitê pode constituir grupos técnicos para assessorá-lo e convidar especialistas.</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>A *Aufklärung* militar foi um movimento francês focado exclusivamente na engenharia de fortificações.</t>
+          <t>É vedada a constituição de grupos técnicos ou o convite a especialistas externos pelo Presidente do Comitê.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>O movimento iluminista militar começou na Alemanha (Prússia) focado na educação e teoria.</t>
+          <t>Segundo o **art. 19**, o Presidente pode constituir grupos técnicos e convidar especialistas.</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1192,32 +1192,32 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>Decreto nº 6.592/2008</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Pág 58</t>
+          <t>Pág 8</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
+          <t>Decreto Mobilização Nacional</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>A derrota total da Prússia em 1806 frente a Napoleão foi o catalisador para a renovação radical do sistema militar prussiano.</t>
+          <t>Compete ao Órgão Central consolidar e compatibilizar os Planos Setoriais em proposta de Plano Nacional de Mobilização.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>As vitórias contínuas de Frederico II garantiram que o sistema prussiano permanecesse inalterado e sem reformas até 1914.</t>
+          <t>Cabe a cada Ministério publicar seu próprio Plano Setorial como Plano Nacional, sem necessidade de consolidação pelo Órgão Central.</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Foi a derrota em Iena (1806) que forçou a reorganização liderada por Scharnhorst.</t>
+          <t>De acordo com o **art. 22, IV**, o Órgão Central consolida os planos setoriais na proposta de Plano Nacional.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1226,32 +1226,32 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>Decreto nº 6.592/2008</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Pág 58</t>
+          <t>Pág 8</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
+          <t>Decreto Mobilização Nacional</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>A inovação capital de Scharnhorst foi a organização de uma seção de Estado-Maior encarregada da instrução e planos de operações.</t>
+          <t>Aos Órgãos de Direção Setorial compete elaborar a Diretriz Setorial de Mobilização Nacional e os Planos Setoriais.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Scharnhorst focou suas reformas apenas na melhoria dos uniformes e na disciplina tática da infantaria, ignorando o Estado-Maior.</t>
+          <t>Os Órgãos de Direção Setorial são proibidos de elaborar planos, devendo apenas executar ordens do Órgão Central.</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>A criação do embrião do Estado-Maior Geral moderno foi a grande inovação de Scharnhorst.</t>
+          <t>O **art. 23, III e IV** atribui aos Órgãos Setoriais a elaboração da Diretriz e dos Planos Setoriais.</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1260,32 +1260,32 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>Decreto nº 6.592/2008</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Pág 58</t>
+          <t>Pág 8</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
+          <t>Decreto Mobilização Nacional</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>O sistema de guerra prussiano estabeleceu-se sobre dois fundamentos teóricos principais: a geografia militar e a história militar.</t>
+          <t>O Órgão Central deve elaborar e manter atualizada a Doutrina Básica de Mobilização Nacional.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>O sistema prussiano rejeitava a teoria, baseando-se exclusivamente na prática de tiro e na equitação.</t>
+          <t>A Doutrina Básica de Mobilização é imutável e não requer atualização ou elaboração pelo Órgão Central.</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>A geografia e a história militar eram os pilares intelectuais da formação do Estado-Maior prussiano.</t>
+          <t>Conforme o **art. 22, V**, é competência do Órgão Central elaborar e manter atualizada a Doutrina.</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1294,32 +1294,32 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>Decreto nº 6.592/2008</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Pág 59</t>
+          <t>Pág 9</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
+          <t>Decreto Mobilização Nacional</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Sob o Segundo Império, a França sofria com a "escola de inatos", que desvalorizava o estudo em favor da inspiração militar.</t>
+          <t>O preparo da Mobilização Nacional é desenvolvido de modo contínuo e permanente, desde a situação de normalidade.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>A França do Segundo Império era conhecida pelo seu rigoroso academicismo militar e rejeição total da improvisação.</t>
+          <t>O preparo da Mobilização Nacional só deve ser iniciado após a declaração oficial de guerra, sendo vedado na normalidade.</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>A cultura militar francesa da época valorizava o "gênio inato" e desprezava o estudo teórico.</t>
+          <t>Segundo o **art. 24**, o preparo é contínuo, metódico e permanente, desde a situação de normalidade.</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1328,32 +1328,32 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>Decreto nº 6.592/2008</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Pág 59</t>
+          <t>Pág 9</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
+          <t>Decreto Mobilização Nacional</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>O período de 1880 a 1914 é considerado a idade de ouro do pensamento militar nas grandes potências.</t>
+          <t>Medidas de incentivo durante o preparo podem contemplar isenções tributárias e condições favoráveis de crédito.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>O período de 1880 a 1914 foi marcado por uma estagnação total do pensamento militar e ausência de novas teorias.</t>
+          <t>Durante o preparo, é proibido ao governo conceder qualquer tipo de incentivo fiscal ou de crédito para a defesa nacional.</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Houve uma proliferação de Altos Estudos Militares e produção teórica nesse período.</t>
+          <t>O **art. 25, parágrafo único**, lista condições de crédito e isenções tributárias como modalidades de incentivo.</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1362,32 +1362,32 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>Decreto nº 6.592/2008</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Pág 59</t>
+          <t>Pág 9</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
+          <t>Decreto Mobilização Nacional</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Para Jomini (1839), a estratégia é a arte de fazer a guerra sobre o mapa, abraçando todo o teatro de guerra.</t>
+          <t>O preparo contempla ações de esclarecimento à sociedade sobre a necessidade de esforço conjunto.</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Para Jomini, a estratégia resume-se à liderança moral das tropas no momento do choque físico.</t>
+          <t>O preparo deve ser mantido em total sigilo, sendo proibido qualquer esclarecimento à sociedade civil.</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Jomini definiu a estratégia com foco no planejamento e visão global (guerra no mapa).</t>
+          <t>Conforme o **art. 24, parágrafo único**, o preparo contempla ações dirigidas à sociedade para esclarecimento.</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1396,32 +1396,32 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>Decreto nº 6.592/2008</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Pág 60</t>
+          <t>Pág 10</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
+          <t>Decreto Mobilização Nacional</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Clausewitz define a estratégia como a teoria relativa à prática dos combates ao serviço da guerra.</t>
+          <t>A execução da Mobilização Nacional consiste na implementação de forma acelerada e compulsória do Plano Nacional de Mobilização.</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Clausewitz define a estratégia como a arte de evitar o combate através da diplomacia.</t>
+          <t>A execução da Mobilização Nacional é voluntária e ocorre de forma lenta e gradual, conforme a adesão das empresas.</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>A definição clausewitziana liga a estratégia ao uso dos combates para os fins da guerra.</t>
+          <t>O **art. 27** define a execução como implementação acelerada e compulsória do Plano.</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -1430,32 +1430,32 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>Decreto nº 6.592/2008</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Pág 60</t>
+          <t>Pág 10</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
+          <t>Decreto Mobilização Nacional</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Antes de 1914, houve uma regressão conceitual onde a estratégia voltou a ser vista apenas como a "arte do comando" ou "do general".</t>
+          <t>O ato presidencial de decretação da Mobilização fixará a intervenção nos fatores de produção pública e privada.</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Antes de 1914, o conceito de estratégia expandiu-se para incluir a economia e a diplomacia em todos os exércitos europeus.</t>
+          <t>O Presidente não tem poderes para intervir nos fatores de produção privada, mesmo na decretação de Mobilização.</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Os estrategistas terrestres retornaram à definição restrita de "arte do general", esquecendo a dimensão política.</t>
+          <t>Segundo o **art. 29, VIII**, o ato fixará a intervenção nos fatores de produção pública e privada.</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1464,32 +1464,32 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>Decreto nº 6.592/2008</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Pág 60</t>
+          <t>Pág 10</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
+          <t>Decreto Mobilização Nacional</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>O termo alemão *Feldherrkunst*, usado no século XIX, traduz-se literalmente como arte do mestre do campo de batalha.</t>
+          <t>A execução da Mobilização Nacional tem início em ato do Presidente da República.</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>O termo *Feldherrkunst* significa a arte da negociação política em tempos de guerra.</t>
+          <t>A execução da Mobilização inicia-se automaticamente após decisão do Congresso, sem necessidade de ato do Presidente.</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>*Feld* (campo), *Herr* (mestre), *Kunst* (arte) refere-se ao comando militar no campo.</t>
+          <t>Conforme o **art. 26**, a execução tem início em ato do Presidente da República.</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1498,32 +1498,32 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>Decreto nº 6.592/2008</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Pág 61</t>
+          <t>Pág 11</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
+          <t>Decreto Mobilização Nacional</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>A "primeira extensão" da estratégia foi o reconhecimento de sua permanência, existindo tanto na paz quanto na guerra.</t>
+          <t>Para cada Plano Nacional de Mobilização será elaborado, simultaneamente, o correspondente Plano Nacional de Desmobilização.</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>A estratégia é um conceito que, por definição, deixa de existir no momento em que a paz é declarada.</t>
+          <t>O Plano de Desmobilização só pode ser elaborado após o fim do conflito, sendo proibida sua elaboração simultânea à mobilização.</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Teóricos começaram a perceber que a preparação e a dissuasão (paz) também eram estratégicas.</t>
+          <t>O **art. 32** determina a elaboração simultânea dos Planos de Mobilização e Desmobilização.</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1532,32 +1532,32 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>Decreto nº 6.592/2008</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Pág 61</t>
+          <t>Pág 11</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
+          <t>Decreto Mobilização Nacional</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Julian Corbett distinguiu entre *major strategy* (grande estratégia) e *minor strategy* em seus princípios de estratégia marítima.</t>
+          <t>A decretação da Desmobilização Nacional caracteriza o retorno total à situação de normalidade e o final da Mobilização.</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Julian Corbett rejeitou qualquer divisão da estratégia, afirmando que só existe a tática naval.</t>
+          <t>A Desmobilização Nacional mantém o estado de exceção por tempo indeterminado, impedindo o retorno à normalidade.</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Corbett sistematizou a distinção entre a estratégia maior (política/militar) e a menor (operacional).</t>
+          <t>Segundo o **art. 34**, a decretação da Desmobilização caracteriza o retorno total à normalidade.</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -1566,1158 +1566,36 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>Decreto nº 6.592/2008</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Pág 61</t>
+          <t>Pág 11</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
+          <t>Decreto Mobilização Nacional</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Corbett definiu a estratégia como a arte de dirigir a força até os fins a alcançar, indo além da esfera puramente do exército.</t>
+          <t>A Desmobilização Nacional deve ser implementada de modo gradativo.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Corbett definiu a estratégia restritamente como a movimentação de navios em formação de combate.</t>
+          <t>A Desmobilização Nacional deve ocorrer de forma abrupta e imediata, encerrando todas as atividades de uma só vez.</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Sua definição ("dirigir a força") permitiu a extrapolação para além do puramente militar.</t>
+          <t>Conforme o **art. 30**, a Desmobilização é implementada de modo gradativo.</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Tratado de Estratégia</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Pág 62</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>A Primeira Guerra Mundial foi decisiva para o reconhecimento das estratégias não-militares (econômica, propaganda) devido à sua natureza total.</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>A Primeira Guerra Mundial provou que apenas a estratégia militar importa, sendo a economia irrelevante para o resultado.</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>A natureza de "guerra total" da 1ª GM forçou a inclusão da economia e sociedade na estratégia.</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Tratado de Estratégia</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Pág 62</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Ludendorff inverteu o axioma de Clausewitz, afirmando que a política deve estar a serviço da guerra.</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Ludendorff reafirmou fielmente Clausewitz, defendendo que a guerra é apenas um instrumento da política.</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Ludendorff pregava a "Guerra Total" onde a guerra é o fim último do Estado, subordinando a política.</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Tratado de Estratégia</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Pág 62</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Os soviéticos (Frounze e Svechin) foram pioneiros no conceito de estratégia integral, unindo política, economia e militar.</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Os teóricos soviéticos rejeitaram qualquer estratégia que não fosse puramente focada na tática de infantaria.</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Nos anos 1920, os soviéticos já falavam em estratégia integral e unificação de comandos.</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Tratado de Estratégia</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Pág 63</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Liddell Hart definiu a "grande estratégia" como aquela que avalia recursos para manter as forças e olha para a paz subsequente.</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Liddell Hart definiu a "grande estratégia" como a concentração máxima de força em um único ponto decisivo.</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Liddell Hart focou na gestão de recursos nacionais e no objetivo final de uma paz melhor.</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Tratado de Estratégia</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Pág 63</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>O Almirante Castex propôs o conceito de "estratégia geral" para coordenar as estratégias particulares (militar, política, econômica).</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>O Almirante Castex defendeu que a estratégia naval deve ser completamente independente da estratégia política ou geral.</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Castex teorizou a Estratégia Geral como a coordenadora das estratégias específicas.</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Tratado de Estratégia</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Pág 63</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Durante a Segunda Guerra Mundial, a doutrina norte-americana passou a utilizar o termo "estratégia nacional".</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>A doutrina norte-americana na Segunda Guerra Mundial aboliu o uso da palavra estratégia, usando apenas "logística".</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>O termo "estratégia nacional" (ou global) surgiu para abarcar a mobilização total dos EUA.</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Tratado de Estratégia</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Pág 64</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>A teoria dos jogos de von Neumann e Morgenstern (1944) foi crucial para a aplicação da estratégia em atividades sociais e empresas.</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>A teoria dos jogos provou matematicamente que a estratégia não pode ser aplicada fora do campo militar.</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>A Teoria dos Jogos forneceu a base matemática para generalizar a estratégia para negócios e outras áreas.</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Tratado de Estratégia</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Pág 64</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>O termo "gestão de crises" é criticado pois gestão implica conservação, enquanto uma crise exige solução ou manobra.</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>"Gestão de crises" é o termo tecnicamente mais preciso, pois crises devem ser conservadas e administradas indefinidamente.</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Crises devem ser resolvidas (manobradas), não geridas (conservadas), segundo a crítica do texto.</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Tratado de Estratégia</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Pág 64</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>A partir dos anos 1950, economistas começaram a falar de estratégia de empresa, importando o conceito militar.</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>A estratégia de empresa nasceu independentemente no século XIX, sem nenhuma influência do pensamento militar.</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>O conceito de estratégia empresarial (Corporate Strategy) derivou do militar e da teoria dos jogos nos anos 50.</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Tratado de Estratégia</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Pág 65</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Segundo Carl Schmitt, o critério fundamental da política (e da estratégia) é a designação do adversário (amigo-inimigo).</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Carl Schmitt define que a política e a estratégia baseiam-se universalmente na busca pelo consenso e harmonia global.</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>A distinção amigo-inimigo é o critério central de Schmitt para definir o político.</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Tratado de Estratégia</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Pág 65</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>A aplicação de "estratégia" a problemas como o buraco na camada de ozônio é um abuso de linguagem por falta de um inimigo designado.</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>O combate ao buraco na camada de ozônio é o exemplo mais puro de estratégia, pois envolve risco existencial.</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Sem um inimigo inteligente (dialética), não há estratégia propriamente dita, apenas resolução de problemas.</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Tratado de Estratégia</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Pág 65</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Um simples conflito de interesses não basta para caracterizar a estratégia; é preciso a dialética com um adversário.</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Qualquer divergência de interesses, como uma negociação salarial, é automaticamente uma guerra estratégica total.</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>A estratégia exige o uso ou ameaça da força e uma dialética hostil, não apenas interesses divergentes.</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Tratado de Estratégia</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Pág 66</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>O General Beaufre definiu estratégia como uma "dialética de vontades empregando a força para resolver o conflito".</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>O General Beaufre definiu estratégia como "a aplicação estrita de regulamentos militares para evitar o conflito".</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>A definição de Beaufre foca na dialética de vontades e no uso da força.</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Tratado de Estratégia</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Pág 66</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>O autor propõe ajustar a definição para "dialética das inteligências", reservando a vontade para a tática.</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>O autor argumenta que a inteligência é irrelevante na estratégia, sendo a força bruta o único fator decisivo.</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>A estratégia requer discernimento (inteligência), enquanto a execução tática exige tenacidade (vontade).</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Tratado de Estratégia</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Pág 66</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>A "lei de ação mínima" na estratégia visa produzir o máximo resultado com o menor consumo possível.</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>A "lei de ação mínima" dita que se deve sempre evitar a ação, esperando que o inimigo desista sozinho.</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>O objetivo estratégico é a eficiência: máximo efeito com mínimo esforço/custo.</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Tratado de Estratégia</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Pág 67</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Na hierarquia estratégica proposta, a inteligência é comandada pela vontade, necessária para tomar decisões.</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Na estratégia, a inteligência deve ser totalmente livre e nunca submetida à vontade ou à necessidade de decisão.</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>A inteligência analisa, mas é a vontade que decide e age (conforme Joseph de Maistre/São Tomás).</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Tratado de Estratégia</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Pág 67</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>O "verdadeiro estratego" distingue-se por submeter a percepção à razão, criando uma doutrina pessoal, em vez de apenas reproduzir estereótipos.</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>O "verdadeiro estratego" é aquele que memoriza e aplica rigidamente os regulamentos sem questioná-los.</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>A capacidade crítica e racional de criar doutrina distingue o mestre do prático imitador.</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Tratado de Estratégia</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Pág 67</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Sun Tzu afirma que quem conhece o inimigo e a si mesmo conduzirá cem combates sem risco.</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Sun Tzu afirma que o autoconhecimento é irrelevante, bastando conhecer a localização do inimigo.</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>O conhecimento duplo (si mesmo e inimigo) é a chave da segurança na guerra segundo Sun Tzu.</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Tratado de Estratégia</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Pág 68</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>A ideologia da ofensiva de 1911 errou ao ignorar a vontade do inimigo, focando apenas na própria decisão.</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>A ideologia da ofensiva de 1911 foi um sucesso porque provou que a vontade francesa era superior à alemã.</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>O erro fatal foi desconsiderar que o inimigo também tem vontade e planos ("O que o inimigo quer, pouco importa").</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Tratado de Estratégia</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Pág 68</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Napoleão aconselhava a nunca fazer o que o inimigo quer apenas porque ele o deseja.</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Napoleão aconselhava a sempre atacar onde o inimigo é mais forte para demonstrar coragem.</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>O axioma de Napoleão é evitar fazer o jogo do inimigo (ex: não ir ao campo de batalha escolhido por ele).</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Tratado de Estratégia</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Pág 68</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Definir estratégia baseada na superação de "obstáculos" é vago demais, pois tornaria o alpinismo uma atividade estratégica.</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>A definição de estratégia como superação de obstáculos é a mais precisa, pois exclui atividades como o alpinismo.</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>O conceito de obstáculo não implica necessariamente um inimigo inteligente, o que dilui o conceito de estratégia.</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Tratado de Estratégia</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Pág 69</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Sem a dialética das inteligências e um inimigo, não há estratégia; por isso não há "estratégia" contra a natureza.</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>A luta contra forças naturais é a forma mais pura de estratégia, pois a natureza é um inimigo imprevisível.</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>A estratégia exige um oponente reativo e inteligente, não uma força cega como a natureza.</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Tratado de Estratégia</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Pág 69</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Em teoria pura, a estratégia é um jogo de soma zero: o que um ganha, o outro perde.</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Em teoria pura, a estratégia é um jogo de soma positiva, onde ambos os lados sempre saem ganhando.</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>A lógica do conflito puro implica que o ganho de um é a perda do outro (vitória/derrota).</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Tratado de Estratégia</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Pág 69</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>O fim intermediário do conflito comandado pela estratégia é a vitória.</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>O fim único e final da estratégia é a paz perpétua sem vencedores nem vencidos.</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>A estratégia visa a vitória (impor a vontade); a paz política é o fim subsequente.</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Tratado de Estratégia</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Pág 70</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Gabriel Tarde afirmou que todo conflito no campo de batalha tende a resumir-se a um duelo binário (sim vs. não).</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Gabriel Tarde afirmou que os conflitos modernos tendem a manter múltiplos lados independentes sem polarização.</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>A lógica do duelo simplifica a situação para duas forças opostas.</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Tratado de Estratégia</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Pág 70</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Segundo a lei de coalizão nas tríades (Caplow), três protagonistas tendem a reduzir-se a dois através de alianças.</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Segundo a lei de coalizão nas tríades, três protagonistas sempre mantêm o equilíbrio perfeito sem se aliar.</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Em sistemas de três, dois tendem a se unir contra o terceiro (ex: fracos contra o forte).</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Tratado de Estratégia</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Pág 70</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>A guerra na China nos anos 1930 foi uma exceção de "guerra triangular" (Nacionalistas, Comunistas, Japoneses).</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>A guerra na China nos anos 1930 foi um exemplo clássico de duelo binário, sem terceiras partes envolvidas.</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Foi um raro caso de três forças combatendo simultaneamente devido à imensidão do território e naturezas distintas do conflito.</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Tratado de Estratégia</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Pág 71</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Clausewitz define a guerra como um ato de violência destinado a obrigar o adversário a executar a nossa vontade.</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Clausewitz define a guerra como um ato de diplomacia armada destinado a evitar o derramamento de sangue.</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>A definição central de Clausewitz foca na violência como meio de impor a vontade.</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Tratado de Estratégia</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Pág 71</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>A primeira lei de ação recíproca diz que a tentativa de comandar o outro leva o conflito aos extremos.</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>A primeira lei de ação recíproca diz que a guerra tende naturalmente à moderação e ao cessar-fogo.</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>A interação hostil gera uma escalada (reciprocidade) em direção à violência absoluta (extremos).</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Tratado de Estratégia</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Pág 71</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>A guerra não é a ação de uma força viva sobre uma massa morta, mas a colisão de duas forças vivas.</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>A guerra é definida como a ação de uma força viva moldando uma massa morta e passiva.</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>O inimigo reage; não é um objeto passivo, o que gera a imprevisibilidade e a escalada.</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Tratado de Estratégia</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Pág 72</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Na realidade, a guerra difere do conceito puro de Clausewitz porque nunca é um ato isolado e o resultado raramente é absoluto.</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Na realidade, as guerras sempre atingem o extremo absoluto previsto na teoria, terminando com a aniquilação total.</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Fatores reais (atrito, política, tempo) impedem que a guerra atinja o extremo teórico absoluto.</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Tratado de Estratégia</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Pág 72</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>A "análise do pior caso" (*worst case analysis*) na era nuclear leva a lógica da precaução ao extremo, impulsionando a corrida armamentista.</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>A "análise do pior caso" levou ao desarmamento nuclear, pois provou que a guerra era impossível.</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Assumir o pior cenário possível (mesmo improvável) força o aumento preventivo de armamentos.</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Tratado de Estratégia</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Pág 72</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Thomas Schelling argumentou que em quase todos os conflitos existe uma margem de interesse comum (evitar destruição mútua).</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Thomas Schelling provou que em conflitos estratégicos não existe nenhum interesse comum entre os adversários.</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Schelling mostrou que a sobrevivência mútua é um interesse comum que permite a negociação/dissuasão.</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
